--- a/quadre/Input_vasca.xlsx
+++ b/quadre/Input_vasca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\MATLAB\Fem_vasche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sae\workspace\FEM-vasche\quadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t xml:space="preserve">Nome </t>
-  </si>
-  <si>
     <t>path</t>
   </si>
   <si>
@@ -91,12 +88,15 @@
   </si>
   <si>
     <t>0.6-1.3</t>
+  </si>
+  <si>
+    <t>Nome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +152,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,7 +460,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,66 +484,66 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -570,13 +570,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2">

--- a/quadre/Input_vasca.xlsx
+++ b/quadre/Input_vasca.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>path</t>
   </si>
@@ -66,18 +66,12 @@
     <t>cerchiatura in y [m]</t>
   </si>
   <si>
-    <t>densità liquido [kg/m3]</t>
-  </si>
-  <si>
     <t>posizioni aggiuntive in x [m]</t>
   </si>
   <si>
     <t>posizioni aggiuntive in z [m]</t>
   </si>
   <si>
-    <t>C:\Users\test\Desktop\</t>
-  </si>
-  <si>
     <t>PP</t>
   </si>
   <si>
@@ -91,6 +85,9 @@
   </si>
   <si>
     <t>Nome</t>
+  </si>
+  <si>
+    <t>densita liquido [kg/m3]</t>
   </si>
 </sst>
 </file>
@@ -484,7 +481,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -529,20 +526,17 @@
         <v>12</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="D2">
@@ -570,13 +564,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2">

--- a/quadre/Input_vasca.xlsx
+++ b/quadre/Input_vasca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\MATLAB\Fem_vasche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sae\workspace\FEM-vasche\quadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="dati_vasca" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,303 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Marco</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nome output file .txt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+percorso file output</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+commenti per info strauss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+dimensioni interne</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+dimensioni interne</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+spessore pareti e bordo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dimensione ortogonale a parete vasca</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">dimensione parallela a parete vasca
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+materiale vasca:
+Acciaio,Titanio,PP,PE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>coordinate x di assi costole
+Es: 0,31-0,62
+NB:la mesh viene modificata per avere nodi a queste coord</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>coordinate y di assi cerchiatura 
+Es: 0,31-0,62
+NB:la mesh viene modificata per avere nodi a queste coord</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>coordinate z di assi costole 
+Es: 0,31-0,62
+NB:la mesh viene modificata per avere nodi a queste coord</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>la mesh verrà generata con nodi su x=input
+Es: 3,1-6,3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>la mesh verrà generata con nodi su x=input 
+Es: 3,1-6,3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NB: controlla anche mesh bordo</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Nome </t>
   </si>
@@ -78,26 +373,32 @@
     <t>posizioni aggiuntive in z [m]</t>
   </si>
   <si>
-    <t>C:\Users\test\Desktop\</t>
+    <t>RMP singola Z</t>
+  </si>
+  <si>
+    <t>dimensione target mesh x [m]</t>
+  </si>
+  <si>
+    <t>dimensione target mesh y [m]</t>
+  </si>
+  <si>
+    <t>dimensione target mesh z [m]</t>
+  </si>
+  <si>
+    <t>0,3-0,5</t>
   </si>
   <si>
     <t>PP</t>
   </si>
   <si>
-    <t>BREDA700</t>
-  </si>
-  <si>
-    <t>0.5-1.5</t>
-  </si>
-  <si>
-    <t>0.6-1.3</t>
+    <t>0,15-0,45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +413,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,7 +466,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,8 +481,89 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1060174</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>49534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>37290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2" descr="immagine vasca.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11314044" y="1325056"/>
+          <a:ext cx="8589065" cy="5512256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>166997</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Immagine 4" descr="zoom.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18288001" y="1850571"/>
+          <a:ext cx="6929746" cy="4809618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -453,20 +848,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -480,9 +875,11 @@
     <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.140625" customWidth="1"/>
     <col min="18" max="18" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -537,31 +934,37 @@
       <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G2">
-        <v>2.5000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="H2">
         <v>0.02</v>
       </c>
       <c r="I2">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="J2">
         <v>0.05</v>
@@ -570,41 +973,61 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="P2">
+        <v>1700</v>
+      </c>
+      <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2">
-        <v>1300</v>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2">
+        <v>0.1</v>
+      </c>
+      <c r="T2">
+        <v>0.1</v>
+      </c>
+      <c r="U2">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M5" s="3"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M6" s="3"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M7" s="3"/>
       <c r="O7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="69" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>